--- a/static/csv/wins.xlsx
+++ b/static/csv/wins.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="66">
   <si>
     <t>date</t>
   </si>
@@ -52,33 +52,69 @@
     <t>neighbours</t>
   </si>
   <si>
-    <t>2-2-2019</t>
-  </si>
-  <si>
-    <t>20:6:0</t>
+    <t>4-2-2019</t>
+  </si>
+  <si>
+    <t>20:56:0</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>FH</t>
+  </si>
+  <si>
+    <t>odd</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>two</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>a-b-c-d</t>
+  </si>
+  <si>
+    <t>thirds of the wheel</t>
+  </si>
+  <si>
+    <t>23-10-24-16</t>
+  </si>
+  <si>
+    <t>20:55:0</t>
+  </si>
+  <si>
     <t>SH</t>
   </si>
   <si>
-    <t>odd</t>
+    <t>even</t>
   </si>
   <si>
     <t>third</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
     <t>25-30</t>
   </si>
   <si>
+    <t>r-t</t>
+  </si>
+  <si>
+    <t>36-11-8-23</t>
+  </si>
+  <si>
+    <t>20:48:0</t>
+  </si>
+  <si>
     <t>q-r-s-t</t>
   </si>
   <si>
@@ -88,154 +124,91 @@
     <t>22-18-7-28</t>
   </si>
   <si>
-    <t>20:5:0</t>
-  </si>
-  <si>
-    <t>FH</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>1-6</t>
-  </si>
-  <si>
-    <t>b-d</t>
-  </si>
-  <si>
-    <t>the orphans</t>
-  </si>
-  <si>
-    <t>17-34-27-13</t>
-  </si>
-  <si>
-    <t>20:4:0</t>
+    <t>20:52:0</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>a-b</t>
+  </si>
+  <si>
+    <t>4-21-25-17</t>
+  </si>
+  <si>
+    <t>20:53:0</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>19-24</t>
+  </si>
+  <si>
+    <t>l-n</t>
+  </si>
+  <si>
+    <t>19-4-2-25</t>
+  </si>
+  <si>
+    <t>20:51:0</t>
   </si>
   <si>
     <t xml:space="preserve">one </t>
   </si>
   <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>13-18</t>
+  </si>
+  <si>
+    <t>g-i</t>
+  </si>
+  <si>
+    <t>6-27-36-11</t>
+  </si>
+  <si>
+    <t>20:50:5</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>31-36</t>
+  </si>
+  <si>
+    <t>t-v</t>
+  </si>
+  <si>
+    <t>24-16-1-20</t>
+  </si>
+  <si>
+    <t>20:49:0</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>j-l</t>
+  </si>
+  <si>
+    <t>9-22-29-7</t>
+  </si>
+  <si>
+    <t>20:48:50</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
     <t>7-12</t>
   </si>
   <si>
-    <t>e-g</t>
-  </si>
-  <si>
-    <t>thirds of the wheel</t>
-  </si>
-  <si>
-    <t>8-23-5-24</t>
-  </si>
-  <si>
-    <t>20:3:0</t>
-  </si>
-  <si>
-    <t>second</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>19-24</t>
-  </si>
-  <si>
-    <t>n-p</t>
-  </si>
-  <si>
-    <t>10-5-16-33</t>
-  </si>
-  <si>
-    <t>20:2:0</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>f-h</t>
-  </si>
-  <si>
-    <t>neighbours of zero, zero game</t>
-  </si>
-  <si>
-    <t>7-28-35-3</t>
-  </si>
-  <si>
-    <t>20:1:0</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>13-18</t>
-  </si>
-  <si>
-    <t>i-j-k-l</t>
-  </si>
-  <si>
-    <t>2-25-34-6</t>
-  </si>
-  <si>
-    <t>20:0:0</t>
-  </si>
-  <si>
     <t>e-f-g-h</t>
   </si>
   <si>
     <t>13-26-30-8</t>
-  </si>
-  <si>
-    <t>19:59:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> zero game</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>3-26-32-15</t>
-  </si>
-  <si>
-    <t>19:58:0</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>31-36</t>
-  </si>
-  <si>
-    <t>t-v</t>
-  </si>
-  <si>
-    <t>24-16-1-20</t>
-  </si>
-  <si>
-    <t>19:57:0</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>p-r</t>
-  </si>
-  <si>
-    <t>34-6-13-36</t>
-  </si>
-  <si>
-    <t>19:56:0</t>
-  </si>
-  <si>
-    <t>r-t</t>
-  </si>
-  <si>
-    <t>36-11-8-23</t>
   </si>
 </sst>
 </file>
@@ -612,7 +585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -664,7 +637,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -705,7 +678,7 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -723,16 +696,16 @@
         <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
@@ -746,37 +719,37 @@
         <v>33</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
         <v>28</v>
       </c>
       <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>35</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>36</v>
-      </c>
-      <c r="K4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -784,13 +757,13 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -799,25 +772,25 @@
         <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -825,40 +798,40 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
         <v>8</v>
       </c>
       <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
         <v>35</v>
       </c>
-      <c r="J6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" t="s">
-        <v>49</v>
-      </c>
       <c r="M6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -866,40 +839,40 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
         <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M7" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -907,40 +880,40 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="K8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="L8" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -948,40 +921,40 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>NaN</v>
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
       </c>
       <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>26</v>
-      </c>
-      <c r="I9">
-        <v>32</v>
-      </c>
-      <c r="J9">
-        <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" t="s">
-        <v>49</v>
-      </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -989,10 +962,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -1001,28 +974,28 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
         <v>8</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J10" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1030,40 +1003,40 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K11" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M11" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1071,40 +1044,81 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="J12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" t="s">
-        <v>73</v>
-      </c>
-      <c r="L12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" t="s">
-        <v>74</v>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
